--- a/dados/ck sound.xlsx
+++ b/dados/ck sound.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:442970967#searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=d09b5f71-87ca-43a2-87fa-5c3b83a607ec</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:442970967#searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>FONTE 120A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:442970967#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=d09b5f71-87ca-43a2-87fa-5c3b83a607ec</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:442970967#searchVariation=MLB21392652&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
         </is>
       </c>
     </row>
@@ -521,17 +551,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:442970967#searchVariation=MLB27687422&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=d09b5f71-87ca-43a2-87fa-5c3b83a607ec</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:442970967#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
         </is>
       </c>
     </row>
@@ -546,17 +582,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:442970967#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=d09b5f71-87ca-43a2-87fa-5c3b83a607ec</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:442970967#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
         </is>
       </c>
     </row>
@@ -571,17 +617,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:442970967#searchVariation=MLB22144397&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=d09b5f71-87ca-43a2-87fa-5c3b83a607ec</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:442970967#searchVariation=MLB22144397&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
         </is>
       </c>
     </row>
@@ -596,17 +652,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>FONTE 200A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:442970967#searchVariation=MLB21348561&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=d09b5f71-87ca-43a2-87fa-5c3b83a607ec</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:442970967#searchVariation=MLB21348561&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
         </is>
       </c>
     </row>
@@ -621,17 +687,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2772876015-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd09b5f71-87ca-43a2-87fa-5c3b83a607ec</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2772876015-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
         </is>
       </c>
     </row>
@@ -646,17 +718,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>FONTE 200A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3203737781-fonte-carregador-automotivo-jfa-storm-200-amperes-sci-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd09b5f71-87ca-43a2-87fa-5c3b83a607ec</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3203737781-fonte-carregador-automotivo-jfa-storm-200-amperes-sci-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
         </is>
       </c>
     </row>
@@ -671,17 +753,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240057378-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd09b5f71-87ca-43a2-87fa-5c3b83a607ec</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3240057378-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
         </is>
       </c>
     </row>

--- a/dados/ck sound.xlsx
+++ b/dados/ck sound.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>443.07</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:442970967#searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:442970967#searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=97b07466-07a1-47b4-a584-a9b7400802e1</t>
         </is>
       </c>
     </row>
@@ -511,14 +511,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:442970967#searchVariation=MLB21392652&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:442970967#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=97b07466-07a1-47b4-a584-a9b7400802e1</t>
         </is>
       </c>
     </row>
@@ -546,13 +546,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>89.98999999999999</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:442970967#searchVariation=MLB27687422&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:442970967#searchVariation=MLB27687422&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=97b07466-07a1-47b4-a584-a9b7400802e1</t>
         </is>
       </c>
     </row>
@@ -577,14 +577,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -602,7 +602,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:442970967#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:442970967#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=97b07466-07a1-47b4-a584-a9b7400802e1</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>499.46</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -637,7 +637,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:442970967#searchVariation=MLB22144397&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:442970967#searchVariation=MLB22144397&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=97b07466-07a1-47b4-a584-a9b7400802e1</t>
         </is>
       </c>
     </row>
@@ -647,14 +647,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>845.87</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -672,7 +672,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:442970967#searchVariation=MLB21348561&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:442970967#searchVariation=MLB21348561&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=97b07466-07a1-47b4-a584-a9b7400802e1</t>
         </is>
       </c>
     </row>
@@ -682,13 +682,13 @@
           <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>89.98999999999999</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2772876015-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2772876015-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D97b07466-07a1-47b4-a584-a9b7400802e1</t>
         </is>
       </c>
     </row>
@@ -713,14 +713,14 @@
           <t>Fonte Carregador Automotivo Jfa Storm 200 Amperes Sci Bivolt</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>845.87</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -738,7 +738,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3203737781-fonte-carregador-automotivo-jfa-storm-200-amperes-sci-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3203737781-fonte-carregador-automotivo-jfa-storm-200-amperes-sci-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D97b07466-07a1-47b4-a584-a9b7400802e1</t>
         </is>
       </c>
     </row>
@@ -748,14 +748,14 @@
           <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>422.93</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -773,7 +773,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240057378-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3ecc166e-cc7f-401e-8926-b1671e3d6284</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3240057378-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D97b07466-07a1-47b4-a584-a9b7400802e1</t>
         </is>
       </c>
     </row>

--- a/dados/ck sound.xlsx
+++ b/dados/ck sound.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:442970967#searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=97b07466-07a1-47b4-a584-a9b7400802e1</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:442970967#searchVariation=MLB21562641&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=36108546-157a-4b1d-ad23-99a001367be0</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:442970967#searchVariation=MLB21392652&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=97b07466-07a1-47b4-a584-a9b7400802e1</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:442970967#searchVariation=MLB21392652&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=36108546-157a-4b1d-ad23-99a001367be0</t>
         </is>
       </c>
     </row>
@@ -548,13 +548,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>89.98999999999999</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -567,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:442970967#searchVariation=MLB27687422&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=97b07466-07a1-47b4-a584-a9b7400802e1</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:442970967#searchVariation=MLB27687422&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=36108546-157a-4b1d-ad23-99a001367be0</t>
         </is>
       </c>
     </row>
@@ -602,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:442970967#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=97b07466-07a1-47b4-a584-a9b7400802e1</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:442970967#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=36108546-157a-4b1d-ad23-99a001367be0</t>
         </is>
       </c>
     </row>
@@ -637,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:442970967#searchVariation=MLB22144397&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=97b07466-07a1-47b4-a584-a9b7400802e1</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:442970967#searchVariation=MLB22144397&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=36108546-157a-4b1d-ad23-99a001367be0</t>
         </is>
       </c>
     </row>
@@ -672,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:442970967#searchVariation=MLB21348561&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=97b07466-07a1-47b4-a584-a9b7400802e1</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:442970967#searchVariation=MLB21348561&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=36108546-157a-4b1d-ad23-99a001367be0</t>
         </is>
       </c>
     </row>
@@ -703,7 +707,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2772876015-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D97b07466-07a1-47b4-a584-a9b7400802e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2772876015-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D36108546-157a-4b1d-ad23-99a001367be0</t>
         </is>
       </c>
     </row>
@@ -738,7 +742,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3203737781-fonte-carregador-automotivo-jfa-storm-200-amperes-sci-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D97b07466-07a1-47b4-a584-a9b7400802e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3203737781-fonte-carregador-automotivo-jfa-storm-200-amperes-sci-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D36108546-157a-4b1d-ad23-99a001367be0</t>
         </is>
       </c>
     </row>
@@ -773,7 +777,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240057378-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D97b07466-07a1-47b4-a584-a9b7400802e1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3240057378-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D36108546-157a-4b1d-ad23-99a001367be0</t>
         </is>
       </c>
     </row>
